--- a/xlsx/盧森堡_intext.xlsx
+++ b/xlsx/盧森堡_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="738">
   <si>
     <t>盧森堡</t>
   </si>
@@ -29,7 +29,7 @@
     <t>盧森堡 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_盧森堡</t>
+    <t>体育运动_体育运动_南非_盧森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1%E5%9B%BD%E6%97%97</t>
@@ -782,442 +782,484 @@
     <t>英国</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>冰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>中欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
+  </si>
+  <si>
+    <t>巴黎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>荷兰王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>维也纳</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>爱尔兰共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>中欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
-  </si>
-  <si>
-    <t>巴黎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>荷兰王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -2535,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4387,7 +4429,7 @@
         <v>122</v>
       </c>
       <c r="G64" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -6330,7 +6372,7 @@
         <v>256</v>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6359,7 +6401,7 @@
         <v>258</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6388,7 +6430,7 @@
         <v>260</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6417,7 +6459,7 @@
         <v>262</v>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6446,7 +6488,7 @@
         <v>264</v>
       </c>
       <c r="G135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6475,7 +6517,7 @@
         <v>266</v>
       </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6533,7 +6575,7 @@
         <v>270</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6562,7 +6604,7 @@
         <v>272</v>
       </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6591,7 +6633,7 @@
         <v>274</v>
       </c>
       <c r="G140" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6620,7 +6662,7 @@
         <v>276</v>
       </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6649,7 +6691,7 @@
         <v>278</v>
       </c>
       <c r="G142" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6678,7 +6720,7 @@
         <v>280</v>
       </c>
       <c r="G143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6707,7 +6749,7 @@
         <v>282</v>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6736,7 +6778,7 @@
         <v>284</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6765,7 +6807,7 @@
         <v>286</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6794,7 +6836,7 @@
         <v>288</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6881,7 +6923,7 @@
         <v>294</v>
       </c>
       <c r="G150" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6910,7 +6952,7 @@
         <v>296</v>
       </c>
       <c r="G151" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6939,7 +6981,7 @@
         <v>298</v>
       </c>
       <c r="G152" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6968,7 +7010,7 @@
         <v>300</v>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6997,7 +7039,7 @@
         <v>302</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7026,7 +7068,7 @@
         <v>304</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7055,7 +7097,7 @@
         <v>306</v>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7084,7 +7126,7 @@
         <v>308</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7142,7 +7184,7 @@
         <v>312</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7200,7 +7242,7 @@
         <v>316</v>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7287,7 +7329,7 @@
         <v>322</v>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7316,7 +7358,7 @@
         <v>324</v>
       </c>
       <c r="G165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7345,7 +7387,7 @@
         <v>326</v>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7374,7 +7416,7 @@
         <v>328</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7403,7 +7445,7 @@
         <v>330</v>
       </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7432,7 +7474,7 @@
         <v>332</v>
       </c>
       <c r="G169" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7461,7 +7503,7 @@
         <v>334</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7490,7 +7532,7 @@
         <v>336</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7548,7 +7590,7 @@
         <v>340</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7577,7 +7619,7 @@
         <v>342</v>
       </c>
       <c r="G174" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7606,7 +7648,7 @@
         <v>344</v>
       </c>
       <c r="G175" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7635,7 +7677,7 @@
         <v>346</v>
       </c>
       <c r="G176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7693,7 +7735,7 @@
         <v>350</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -7722,7 +7764,7 @@
         <v>352</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7751,7 +7793,7 @@
         <v>354</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7780,7 +7822,7 @@
         <v>356</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7925,7 +7967,7 @@
         <v>366</v>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8099,7 +8141,7 @@
         <v>378</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8302,7 +8344,7 @@
         <v>392</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8331,7 +8373,7 @@
         <v>394</v>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8441,10 +8483,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="F204" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8470,13 +8512,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8499,13 +8541,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8528,10 +8570,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8557,10 +8599,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8586,10 +8628,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8615,10 +8657,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8644,10 +8686,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8673,10 +8715,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8702,10 +8744,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8731,13 +8773,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8760,13 +8802,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8789,10 +8831,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8818,10 +8860,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8847,10 +8889,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8876,10 +8918,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8905,13 +8947,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8934,13 +8976,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8963,10 +9005,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8992,10 +9034,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9021,10 +9063,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9050,10 +9092,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9079,10 +9121,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9108,10 +9150,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9137,10 +9179,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9166,10 +9208,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9195,10 +9237,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9224,10 +9266,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9253,10 +9295,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9282,10 +9324,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9311,10 +9353,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9340,10 +9382,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9369,10 +9411,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9398,10 +9440,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9427,10 +9469,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9456,10 +9498,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9485,13 +9527,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G240" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9514,10 +9556,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9543,10 +9585,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9572,10 +9614,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9601,10 +9643,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9630,10 +9672,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9659,13 +9701,13 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>313</v>
+        <v>483</v>
       </c>
       <c r="F246" t="s">
-        <v>314</v>
+        <v>484</v>
       </c>
       <c r="G246" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9688,10 +9730,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9717,10 +9759,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9746,13 +9788,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9775,10 +9817,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9804,13 +9846,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G251" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9833,13 +9875,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>323</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>324</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9862,10 +9904,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9891,10 +9933,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9920,13 +9962,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G255" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9949,13 +9991,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G256" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9978,13 +10020,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10007,13 +10049,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10036,13 +10078,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>253</v>
+        <v>507</v>
       </c>
       <c r="F259" t="s">
-        <v>254</v>
+        <v>508</v>
       </c>
       <c r="G259" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10065,13 +10107,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10094,13 +10136,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G261" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10123,13 +10165,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10152,13 +10194,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10181,13 +10223,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10210,13 +10252,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>253</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>254</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10239,13 +10281,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10268,13 +10310,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10297,10 +10339,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10326,10 +10368,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10355,10 +10397,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10384,13 +10426,13 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10413,10 +10455,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10442,13 +10484,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10471,10 +10513,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10500,10 +10542,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10529,10 +10571,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10558,13 +10600,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -10587,10 +10629,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10616,13 +10658,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>223</v>
+        <v>545</v>
       </c>
       <c r="F279" t="s">
-        <v>224</v>
+        <v>546</v>
       </c>
       <c r="G279" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -10645,10 +10687,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10674,10 +10716,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10703,10 +10745,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10732,13 +10774,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -10761,10 +10803,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10790,13 +10832,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>223</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>224</v>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -10819,10 +10861,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10848,10 +10890,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10877,10 +10919,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10906,13 +10948,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10935,10 +10977,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10964,10 +11006,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10993,13 +11035,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11022,13 +11064,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11051,13 +11093,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11080,13 +11122,13 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -11109,10 +11151,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11138,13 +11180,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11167,13 +11209,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11196,13 +11238,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11225,13 +11267,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>311</v>
+        <v>585</v>
       </c>
       <c r="F300" t="s">
-        <v>312</v>
+        <v>586</v>
       </c>
       <c r="G300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11254,10 +11296,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11283,10 +11325,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11312,13 +11354,13 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G303" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11341,10 +11383,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11370,10 +11412,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11399,13 +11441,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>321</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>322</v>
       </c>
       <c r="G306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11428,13 +11470,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11457,10 +11499,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11486,13 +11528,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11515,10 +11557,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11544,10 +11586,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11573,10 +11615,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11602,10 +11644,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11631,10 +11673,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11660,10 +11702,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11689,10 +11731,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11718,10 +11760,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11747,10 +11789,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11776,13 +11818,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -11805,10 +11847,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11834,10 +11876,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11863,10 +11905,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11892,10 +11934,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11921,10 +11963,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>323</v>
+        <v>631</v>
       </c>
       <c r="F324" t="s">
-        <v>324</v>
+        <v>632</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11950,13 +11992,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F325" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -11979,10 +12021,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F326" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12008,10 +12050,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F327" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12037,10 +12079,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12066,10 +12108,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F329" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12095,10 +12137,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>639</v>
+        <v>333</v>
       </c>
       <c r="F330" t="s">
-        <v>640</v>
+        <v>334</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12124,10 +12166,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F331" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12153,10 +12195,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F332" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12182,10 +12224,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12211,10 +12253,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F334" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12240,10 +12282,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F335" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12269,10 +12311,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F336" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12298,10 +12340,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12327,10 +12369,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12356,10 +12398,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12385,10 +12427,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12414,10 +12456,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12443,10 +12485,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12472,10 +12514,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12501,10 +12543,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12530,10 +12572,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12559,10 +12601,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12588,10 +12630,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12617,10 +12659,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12646,10 +12688,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F349" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12675,10 +12717,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F350" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12704,10 +12746,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12733,10 +12775,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F352" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12762,10 +12804,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F353" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12791,10 +12833,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F354" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12820,10 +12862,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F355" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12849,10 +12891,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F356" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12878,10 +12920,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F357" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12907,10 +12949,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F358" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12936,10 +12978,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F359" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12965,13 +13007,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F360" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G360" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -12994,10 +13036,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F361" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13023,10 +13065,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13052,10 +13094,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13081,10 +13123,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13110,10 +13152,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13139,13 +13181,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G366" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13168,10 +13210,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13197,10 +13239,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13226,10 +13268,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13255,10 +13297,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13284,13 +13326,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="G371" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13313,10 +13355,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F372" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13325,6 +13367,180 @@
         <v>4</v>
       </c>
       <c r="I372" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>372</v>
+      </c>
+      <c r="E373" t="s">
+        <v>727</v>
+      </c>
+      <c r="F373" t="s">
+        <v>728</v>
+      </c>
+      <c r="G373" t="n">
+        <v>1</v>
+      </c>
+      <c r="H373" t="s">
+        <v>4</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>373</v>
+      </c>
+      <c r="E374" t="s">
+        <v>729</v>
+      </c>
+      <c r="F374" t="s">
+        <v>730</v>
+      </c>
+      <c r="G374" t="n">
+        <v>1</v>
+      </c>
+      <c r="H374" t="s">
+        <v>4</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>374</v>
+      </c>
+      <c r="E375" t="s">
+        <v>731</v>
+      </c>
+      <c r="F375" t="s">
+        <v>732</v>
+      </c>
+      <c r="G375" t="n">
+        <v>1</v>
+      </c>
+      <c r="H375" t="s">
+        <v>4</v>
+      </c>
+      <c r="I375" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>375</v>
+      </c>
+      <c r="E376" t="s">
+        <v>733</v>
+      </c>
+      <c r="F376" t="s">
+        <v>734</v>
+      </c>
+      <c r="G376" t="n">
+        <v>1</v>
+      </c>
+      <c r="H376" t="s">
+        <v>4</v>
+      </c>
+      <c r="I376" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>376</v>
+      </c>
+      <c r="E377" t="s">
+        <v>735</v>
+      </c>
+      <c r="F377" t="s">
+        <v>736</v>
+      </c>
+      <c r="G377" t="n">
+        <v>18</v>
+      </c>
+      <c r="H377" t="s">
+        <v>4</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>377</v>
+      </c>
+      <c r="E378" t="s">
+        <v>735</v>
+      </c>
+      <c r="F378" t="s">
+        <v>737</v>
+      </c>
+      <c r="G378" t="n">
+        <v>1</v>
+      </c>
+      <c r="H378" t="s">
+        <v>4</v>
+      </c>
+      <c r="I378" t="n">
         <v>3</v>
       </c>
     </row>
